--- a/doc/我的的客功能模块划分.xlsx
+++ b/doc/我的的客功能模块划分.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,18 +30,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 我的首页</t>
-  </si>
-  <si>
     <t>2. 我的发布</t>
   </si>
   <si>
-    <t>3. 我的关注</t>
-  </si>
-  <si>
-    <t>4. 我的收藏夹</t>
-  </si>
-  <si>
     <t>5. 售后服务（提交问题）</t>
   </si>
   <si>
@@ -627,6 +618,66 @@
   </si>
   <si>
     <t>的客接口定义及工时预估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QZR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的关注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的首页</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的收藏夹</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +723,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -695,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,14 +779,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,7 +1097,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1034,20 +1111,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1056,154 +1133,183 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="D6" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="17.25">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="D8" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="17.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="11">
         <v>14</v>
       </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="D10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="12" customFormat="1" ht="17.25">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" s="12" customFormat="1" ht="17.25">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.25">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="17.25">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1">
-        <v>14</v>
-      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="17.25">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>6</v>
@@ -1211,10 +1317,10 @@
     </row>
     <row r="16" spans="1:6" ht="17.25">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>1.5</v>
@@ -1222,10 +1328,10 @@
     </row>
     <row r="17" spans="1:5" ht="17.25">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>1.5</v>
@@ -1233,10 +1339,10 @@
     </row>
     <row r="18" spans="1:5" ht="17.25">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>1.5</v>
@@ -1244,10 +1350,10 @@
     </row>
     <row r="19" spans="1:5" ht="17.25">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>1.5</v>
@@ -1255,10 +1361,10 @@
     </row>
     <row r="20" spans="1:5" ht="17.25">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>2.5</v>
@@ -1266,38 +1372,38 @@
     </row>
     <row r="21" spans="1:5" ht="17.25">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>14</v>
@@ -1306,10 +1412,10 @@
     </row>
     <row r="24" spans="1:5" ht="17.25">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -1317,10 +1423,10 @@
     </row>
     <row r="25" spans="1:5" ht="17.25">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1328,24 +1434,24 @@
     </row>
     <row r="26" spans="1:5" ht="17.25">
       <c r="A26" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5">
         <v>14</v>
@@ -1355,10 +1461,10 @@
     </row>
     <row r="28" spans="1:5" ht="17.25">
       <c r="A28" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5">
         <v>4</v>
@@ -1368,10 +1474,10 @@
     </row>
     <row r="29" spans="1:5" ht="17.25">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
@@ -1381,10 +1487,10 @@
     </row>
     <row r="30" spans="1:5" ht="17.25">
       <c r="A30" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
@@ -1394,10 +1500,10 @@
     </row>
     <row r="31" spans="1:5" ht="17.25">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
@@ -1407,10 +1513,10 @@
     </row>
     <row r="32" spans="1:5" ht="17.25">
       <c r="A32" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
@@ -1420,10 +1526,10 @@
     </row>
     <row r="33" spans="1:5" ht="17.25">
       <c r="A33" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -1433,10 +1539,10 @@
     </row>
     <row r="34" spans="1:5" ht="17.25">
       <c r="A34" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34" s="5">
         <v>4</v>
@@ -1446,10 +1552,10 @@
     </row>
     <row r="35" spans="1:5" ht="17.25">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
@@ -1459,10 +1565,10 @@
     </row>
     <row r="36" spans="1:5" ht="17.25">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C36" s="5">
         <v>4</v>
@@ -1472,10 +1578,10 @@
     </row>
     <row r="37" spans="1:5" ht="17.25">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
@@ -1485,10 +1591,10 @@
     </row>
     <row r="38" spans="1:5" ht="17.25">
       <c r="A38" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" s="5">
         <v>2</v>
@@ -1498,10 +1604,10 @@
     </row>
     <row r="39" spans="1:5" ht="17.25">
       <c r="A39" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="5">
         <v>10</v>
@@ -1511,8 +1617,8 @@
     </row>
     <row r="40" spans="1:5" ht="17.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="8" t="s">
-        <v>82</v>
+      <c r="B40" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="5">
         <f>SUM(C3:C39)</f>
